--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Код</t>
   </si>
@@ -38,13 +38,31 @@
     <t>Высота</t>
   </si>
   <si>
-    <t>Magnolia Leather Wallet Cover Design with Stand and Portable Card Slots Magnetic Closure Case for iPad Mini 1/2/3</t>
-  </si>
-  <si>
-    <t>http://www.buyinggoods.net/products/pp_1998163.html</t>
-  </si>
-  <si>
-    <t>0.1850</t>
+    <t>WPL B - 1 1:16 Mini Off-road RC Military Truck - RTR</t>
+  </si>
+  <si>
+    <t>https://www.gearbest.com/rc-cars/pp_836208.html?wid=21</t>
+  </si>
+  <si>
+    <t>1,2750</t>
+  </si>
+  <si>
+    <t>Не найдено</t>
+  </si>
+  <si>
+    <t>MJX Bugs 2 B2W Brushless RC Quadcopter - RTF</t>
+  </si>
+  <si>
+    <t>https://www.gearbest.com/rc-quadcopters/pp_645146.html?wid=21</t>
+  </si>
+  <si>
+    <t>1,5150</t>
+  </si>
+  <si>
+    <t>Asus ZenFone 3 (ZE552KL) 64GB ROM 4G Phablet</t>
+  </si>
+  <si>
+    <t>https://www.gearbest.com/cell-phones/pp_366323.html?wid=21</t>
   </si>
 </sst>
 </file>
@@ -380,7 +398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,7 +431,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="n">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -424,14 +442,42 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F2" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.6</v>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
